--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>S.No</t>
   </si>
@@ -65,9 +65,6 @@
 (This will manage the queue for list of orders that needs to be packed and collected from counter)</t>
   </si>
   <si>
-    <t>Interceptor class for calling and retrieving the generated UCOID from Utility class and saving the value in Order Model.</t>
-  </si>
-  <si>
     <t>It is through this table the queue for order (that needs to be collected) will be managed by CSR agent, hence it needs to be updated every time with latest values.</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Customize Thank you page to show UCOID along with order details.</t>
   </si>
   <si>
-    <t>If the UCOID is generated than it needs to be shown on Thankyou page.</t>
-  </si>
-  <si>
     <t xml:space="preserve">CSR Login page </t>
   </si>
   <si>
@@ -136,18 +130,12 @@
     <t>After marking the order as complete , the status should change in "collectOrder" table</t>
   </si>
   <si>
-    <t>Once the order is marked as complete the message should be promped to the customer to collect the order from the next counter/billing desk.</t>
-  </si>
-  <si>
     <t>After the order is collected it should get removed from the pending order list as well as from the "collectOrder" table.</t>
   </si>
   <si>
     <t>Order status to be updated on the order confirmation page(auto-refresh along with a refresh button)</t>
   </si>
   <si>
-    <t> On order confirmation page, UCOID is to be displayed to the customer(along with a message to not share it with anyone.)</t>
-  </si>
-  <si>
     <t>End Date</t>
   </si>
   <si>
@@ -158,6 +146,23 @@
   </si>
   <si>
     <t>Swapnil</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Integrate Utility method with Interceptor</t>
+  </si>
+  <si>
+    <t>Interceptor class for calling and retrieving the generated UCOID from Utility class(for now add the dummy value for UCOID) and saving the value in Order Model.</t>
+  </si>
+  <si>
+    <t>If the UCOID is generated than it needs to be shown on Thankyou page.
+Once the order is marked as complete the message should be promped to the customer to collect the order from the next counter/billing desk.
+ On order confirmation page, UCOID is to be displayed to the customer(along with a message to not share it with anyone.)</t>
   </si>
 </sst>
 </file>
@@ -253,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,9 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -289,8 +291,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,6 +303,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -349,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,9 +612,10 @@
     <col min="4" max="5" width="11.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="97" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -620,10 +626,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
@@ -631,8 +637,11 @@
       <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -642,10 +651,10 @@
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>41946</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>41946</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -654,75 +663,89 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="13">
         <v>41946</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>41946</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D4" s="14">
-        <v>41947</v>
-      </c>
-      <c r="E4" s="14">
-        <v>41948</v>
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>41946</v>
+      </c>
+      <c r="E4" s="13">
+        <v>41946</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="14">
-        <v>41948</v>
-      </c>
-      <c r="E5" s="14">
-        <v>41948</v>
+      <c r="D5" s="13">
+        <v>41946</v>
+      </c>
+      <c r="E5" s="13">
+        <v>41946</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -732,20 +755,23 @@
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="14">
-        <v>41949</v>
-      </c>
-      <c r="E6" s="14">
-        <v>41949</v>
+      <c r="D6" s="13">
+        <v>41947</v>
+      </c>
+      <c r="E6" s="13">
+        <v>41947</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -755,290 +781,289 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
-        <v>41949</v>
-      </c>
-      <c r="E7" s="14">
-        <v>41950</v>
+      <c r="D7" s="13">
+        <v>41947</v>
+      </c>
+      <c r="E7" s="13">
+        <v>41948</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="14">
-        <v>41950</v>
-      </c>
-      <c r="E8" s="14">
-        <v>41953</v>
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="13">
+        <v>41948</v>
+      </c>
+      <c r="E8" s="13">
+        <v>41949</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="14">
-        <v>41953</v>
-      </c>
-      <c r="E9" s="14">
-        <v>41953</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>41948</v>
+      </c>
+      <c r="E9" s="13">
+        <v>41949</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="14">
-        <v>41946</v>
-      </c>
-      <c r="E10" s="14">
-        <v>41947</v>
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>41950</v>
+      </c>
+      <c r="E10" s="13">
+        <v>41950</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="14">
-        <v>41947</v>
-      </c>
-      <c r="E11" s="14">
-        <v>41947</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>41949</v>
+      </c>
+      <c r="E11" s="13">
+        <v>41950</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="14">
-        <v>41953</v>
-      </c>
-      <c r="E12" s="14">
-        <v>41954</v>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="13">
+        <v>41950</v>
+      </c>
+      <c r="E12" s="13">
+        <v>41950</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="13">
+        <v>41950</v>
+      </c>
+      <c r="E13" s="13">
+        <v>41953</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="14">
-        <v>41954</v>
-      </c>
-      <c r="E14" s="14">
-        <v>41955</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="13">
         <v>41954</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>41955</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
         <v>41955</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>41956</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="14">
-        <v>41957</v>
-      </c>
-      <c r="E17" s="14">
-        <v>41957</v>
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="13">
+        <v>41954</v>
+      </c>
+      <c r="E17" s="13">
+        <v>41955</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>41955</v>
+      </c>
+      <c r="E18" s="13">
+        <v>41956</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>41956</v>
+      </c>
+      <c r="E19" s="13">
         <v>41957</v>
       </c>
-      <c r="E18" s="14">
-        <v>41957</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="15">
-        <v>41960</v>
-      </c>
-      <c r="E19" s="15">
-        <v>41960</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="12" t="s">
         <v>39</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -154,15 +154,15 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Integrate Utility method with Interceptor</t>
-  </si>
-  <si>
-    <t>Interceptor class for calling and retrieving the generated UCOID from Utility class(for now add the dummy value for UCOID) and saving the value in Order Model.</t>
-  </si>
-  <si>
     <t>If the UCOID is generated than it needs to be shown on Thankyou page.
 Once the order is marked as complete the message should be promped to the customer to collect the order from the next counter/billing desk.
  On order confirmation page, UCOID is to be displayed to the customer(along with a message to not share it with anyone.)</t>
+  </si>
+  <si>
+    <t>In Process</t>
+  </si>
+  <si>
+    <t>Interceptor class for calling and retrieving the generated UCOID from Utility class and saving the value in Order Model.</t>
   </si>
 </sst>
 </file>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,9 +285,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +648,10 @@
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>41946</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>41946</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -677,10 +674,10 @@
       <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>41946</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>41946</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -703,10 +700,10 @@
       <c r="C4" s="3">
         <v>0.5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>41946</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>41946</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -729,10 +726,10 @@
       <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>41946</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>41946</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -755,10 +752,10 @@
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>41947</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>41947</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -781,10 +778,10 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>41947</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>41948</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -807,257 +804,242 @@
       <c r="C8" s="3">
         <v>1.5</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>41948</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>41949</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
-        <v>41948</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="D9" s="12">
         <v>41949</v>
       </c>
+      <c r="E9" s="12">
+        <v>41950</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
         <v>41950</v>
       </c>
-      <c r="E10" s="13">
-        <v>41950</v>
+      <c r="E10" s="12">
+        <v>41953</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>41949</v>
-      </c>
-      <c r="E11" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="12">
         <v>41950</v>
       </c>
+      <c r="E11" s="12">
+        <v>41950</v>
+      </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="12">
         <v>41950</v>
       </c>
-      <c r="E12" s="13">
-        <v>41950</v>
+      <c r="E12" s="12">
+        <v>41953</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D13" s="13">
-        <v>41950</v>
-      </c>
-      <c r="E13" s="13">
-        <v>41953</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="12">
+        <v>41954</v>
+      </c>
+      <c r="E14" s="12">
+        <v>41955</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D15" s="13">
-        <v>41954</v>
-      </c>
-      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
         <v>41955</v>
+      </c>
+      <c r="E15" s="12">
+        <v>41956</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="12">
+        <v>41954</v>
+      </c>
+      <c r="E16" s="12">
         <v>41955</v>
       </c>
-      <c r="E16" s="13">
-        <v>41956</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="13">
-        <v>41954</v>
-      </c>
-      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
         <v>41955</v>
+      </c>
+      <c r="E17" s="12">
+        <v>41956</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
-        <v>41955</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="12">
         <v>41956</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="12">
+        <v>41957</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="13">
-        <v>41956</v>
-      </c>
-      <c r="E19" s="13">
-        <v>41957</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>36</v>
       </c>
     </row>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>S.No</t>
   </si>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -866,6 +866,9 @@
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -888,6 +891,9 @@
       </c>
       <c r="G11" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -932,7 +938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1020,7 +1026,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>S.No</t>
   </si>
@@ -130,9 +130,6 @@
     <t>After marking the order as complete , the status should change in "collectOrder" table</t>
   </si>
   <si>
-    <t>After the order is collected it should get removed from the pending order list as well as from the "collectOrder" table.</t>
-  </si>
-  <si>
     <t>Order status to be updated on the order confirmation page(auto-refresh along with a refresh button)</t>
   </si>
   <si>
@@ -163,13 +160,19 @@
   </si>
   <si>
     <t>Interceptor class for calling and retrieving the generated UCOID from Utility class and saving the value in Order Model.</t>
+  </si>
+  <si>
+    <t>After the order is collected it should get removed from the pending order ( by changing the status to complete)</t>
+  </si>
+  <si>
+    <t>On the customer My Account create a Order Collect History page ( similar to OOB Order History page) showing the current staus of the order i.e. Pending or Complete (ready to be collected from counter).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +184,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,12 +280,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>2</v>
@@ -635,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -648,10 +646,10 @@
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>41946</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>41946</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -661,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -674,20 +672,20 @@
       <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>41946</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>41946</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -700,20 +698,20 @@
       <c r="C4" s="3">
         <v>0.5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>41946</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>41946</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -726,10 +724,10 @@
       <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>41946</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>41946</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -739,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,10 +750,10 @@
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>41947</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>41947</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -765,7 +763,7 @@
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -778,10 +776,10 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>41947</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>41948</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -791,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -804,20 +802,20 @@
       <c r="C8" s="3">
         <v>1.5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>41948</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>41949</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -825,23 +823,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>41949</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>41950</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="G9" s="12"/>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -854,10 +852,10 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>41950</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>41953</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -867,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -880,20 +878,20 @@
       <c r="C11" s="3">
         <v>0.5</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>41950</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>41950</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
         <v>43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -906,14 +904,14 @@
       <c r="C12" s="3">
         <v>1.5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>41950</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>41953</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>28</v>
@@ -923,7 +921,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3">
@@ -942,20 +940,20 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3">
         <v>1.5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>41954</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>41955</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>30</v>
@@ -971,14 +969,14 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>41955</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>41956</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -992,14 +990,14 @@
       <c r="C16" s="3">
         <v>1.5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>41954</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>41955</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>32</v>
@@ -1015,39 +1013,60 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>41955</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>41956</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>41956</v>
+      </c>
+      <c r="E18" s="11">
+        <v>41957</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="12">
-        <v>41956</v>
-      </c>
-      <c r="E18" s="12">
-        <v>41957</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>41954</v>
+      </c>
+      <c r="E19" s="13">
+        <v>41955</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>S.No</t>
   </si>
@@ -283,11 +283,11 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -811,7 +811,7 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
@@ -837,7 +837,7 @@
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="13"/>
       <c r="H9" t="s">
         <v>41</v>
       </c>
@@ -865,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -915,6 +915,9 @@
       </c>
       <c r="G12" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,6 +982,9 @@
         <v>39</v>
       </c>
       <c r="G15" s="5"/>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1002,8 +1008,11 @@
       <c r="G16" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1024,7 +1033,7 @@
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1057,16 +1066,19 @@
       <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>41954</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>41955</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="7"/>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>S.No</t>
   </si>
@@ -166,6 +166,48 @@
   </si>
   <si>
     <t>On the customer My Account create a Order Collect History page ( similar to OOB Order History page) showing the current staus of the order i.e. Pending or Complete (ready to be collected from counter).</t>
+  </si>
+  <si>
+    <t>New Template creation : Impex for template, Content Slot Names, Content Slot for template (for both desktop and mobile)</t>
+  </si>
+  <si>
+    <t>Create Template Structure VM file</t>
+  </si>
+  <si>
+    <t>Create Template JSP, with HTML code integration(for both desktop and mobile)</t>
+  </si>
+  <si>
+    <t>Create CSROrderListComponent, CSROrderDetailsComponent in items.xml extending SimpleCMSComponent.</t>
+  </si>
+  <si>
+    <t>With System Update</t>
+  </si>
+  <si>
+    <t>Create impexes for page, content slots, content slots for page, components</t>
+  </si>
+  <si>
+    <t>Modify header.tag/jsp with the current UI(when HTML code is available)(for both desktop and mobile)</t>
+  </si>
+  <si>
+    <t>Create CSR Orders Page Controller with JSP(integration with UI)(for both desktop and mobile)</t>
+  </si>
+  <si>
+    <t>Use code from existing PickInStoreOrder controller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Controller for CSR Orders List Component
+UI integration with CSR Orders List Page JSP(for both desktop and mobile)
+</t>
+  </si>
+  <si>
+    <t>Create CSR Order Details Component functionality for retrieving order and customer details through AJAX
+UI integration with CSR Order details Page JSP(when HTML code is available)(for both desktop and mobile)</t>
+  </si>
+  <si>
+    <t>Auto import of impexes during initialization</t>
+  </si>
+  <si>
+    <t>Add importing impexes methods as well as synchronize methods</t>
   </si>
 </sst>
 </file>
@@ -203,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,11 +292,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,6 +363,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +1065,9 @@
       <c r="G14" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -983,7 +1090,7 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1009,7 +1116,7 @@
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1032,6 +1139,9 @@
         <v>38</v>
       </c>
       <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1055,6 +1165,9 @@
       <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -1077,12 +1190,216 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="23">
+        <v>41963</v>
+      </c>
+      <c r="E20" s="23">
+        <v>41963</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="18">
+        <v>41963</v>
+      </c>
+      <c r="E23" s="18">
+        <v>41963</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="18">
+        <v>41963</v>
+      </c>
+      <c r="E24" s="18">
+        <v>41963</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="18">
+        <v>41963</v>
+      </c>
+      <c r="E25" s="18">
+        <v>41963</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>41964</v>
+      </c>
+      <c r="E26" s="18">
+        <v>41964</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="18">
+        <v>41963</v>
+      </c>
+      <c r="E27" s="18">
+        <v>41964</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="18">
+        <v>41964</v>
+      </c>
+      <c r="E28" s="18">
+        <v>41967</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="18">
+        <v>41964</v>
+      </c>
+      <c r="E29" s="18">
+        <v>41967</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>S.No</t>
   </si>
@@ -168,53 +168,48 @@
     <t>On the customer My Account create a Order Collect History page ( similar to OOB Order History page) showing the current staus of the order i.e. Pending or Complete (ready to be collected from counter).</t>
   </si>
   <si>
-    <t>New Template creation : Impex for template, Content Slot Names, Content Slot for template (for both desktop and mobile)</t>
-  </si>
-  <si>
-    <t>Create Template Structure VM file</t>
-  </si>
-  <si>
-    <t>Create Template JSP, with HTML code integration(for both desktop and mobile)</t>
-  </si>
-  <si>
-    <t>Create CSROrderListComponent, CSROrderDetailsComponent in items.xml extending SimpleCMSComponent.</t>
-  </si>
-  <si>
-    <t>With System Update</t>
-  </si>
-  <si>
-    <t>Create impexes for page, content slots, content slots for page, components</t>
-  </si>
-  <si>
-    <t>Modify header.tag/jsp with the current UI(when HTML code is available)(for both desktop and mobile)</t>
-  </si>
-  <si>
-    <t>Create CSR Orders Page Controller with JSP(integration with UI)(for both desktop and mobile)</t>
-  </si>
-  <si>
-    <t>Use code from existing PickInStoreOrder controller.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Controller for CSR Orders List Component
-UI integration with CSR Orders List Page JSP(for both desktop and mobile)
-</t>
-  </si>
-  <si>
-    <t>Create CSR Order Details Component functionality for retrieving order and customer details through AJAX
-UI integration with CSR Order details Page JSP(when HTML code is available)(for both desktop and mobile)</t>
-  </si>
-  <si>
-    <t>Auto import of impexes during initialization</t>
-  </si>
-  <si>
-    <t>Add importing impexes methods as well as synchronize methods</t>
+    <t>Modify orderDetailsPage.jsp
+Create same for mobile as well.</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Create functionality for retrieving orders based on Date and Time.</t>
+  </si>
+  <si>
+    <t>Modify order list page related jsps 
+Create same for mobile also</t>
+  </si>
+  <si>
+    <t>Integrate with HTML code. (index.html and css and javascripts)</t>
+  </si>
+  <si>
+    <t>Modify back end functionality for order listing</t>
+  </si>
+  <si>
+    <t>Remove dependency on template
+Retrieve CSR Agent's name to show on the JSP
+Retrieve CollectOrders Created Time Stamp in the format HH:MM AM/PM</t>
+  </si>
+  <si>
+    <t>Use createdTS attribute to compare. Integrate it with Time Search on ordersListPage.jsp</t>
+  </si>
+  <si>
+    <t>Modify back end functionality for retrieving order and customer details through AJAX.</t>
+  </si>
+  <si>
+    <t>Create fragment JSPs for order details.(desktop and mobile)(JSON format)(for now basic UI as HTML code is not available for order details yet)</t>
+  </si>
+  <si>
+    <t>Data as per screenshots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -293,26 +288,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -329,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,36 +337,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,10 +449,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -696,14 +658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -714,7 +676,7 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -740,7 +702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -766,7 +728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -792,7 +754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -818,7 +780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -844,7 +806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="72" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -870,7 +832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -896,7 +858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -915,14 +877,14 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -941,12 +903,12 @@
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="16"/>
       <c r="H9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="60">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -972,7 +934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -998,7 +960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1024,7 +986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1043,7 +1005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1069,7 +1031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1093,7 +1055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1119,7 +1081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1143,7 +1105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1165,11 +1127,8 @@
       <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="60.75" thickBot="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1193,213 +1152,130 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30.75" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="18">
         <v>1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="17">
         <v>41963</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="17">
         <v>41963</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45.75" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <v>41964</v>
+      </c>
+      <c r="E21" s="17">
+        <v>41964</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="17">
+        <v>41964</v>
+      </c>
+      <c r="E22" s="17">
+        <v>41964</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.75" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="18">
-        <v>41963</v>
-      </c>
-      <c r="E23" s="18">
-        <v>41963</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="B23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>41967</v>
+      </c>
+      <c r="E23" s="15">
+        <v>41967</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="18">
-        <v>41963</v>
-      </c>
-      <c r="E24" s="18">
-        <v>41963</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="18">
-        <v>41963</v>
-      </c>
-      <c r="E25" s="18">
-        <v>41963</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="B24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="13">
+        <v>2</v>
+      </c>
+      <c r="D24" s="17">
+        <v>41964</v>
+      </c>
+      <c r="E24" s="17">
+        <v>41967</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="G24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="18">
-        <v>41964</v>
-      </c>
-      <c r="E26" s="18">
-        <v>41964</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="18">
-        <v>41963</v>
-      </c>
-      <c r="E27" s="18">
-        <v>41964</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="D28" s="18">
-        <v>41964</v>
-      </c>
-      <c r="E28" s="18">
-        <v>41967</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="D29" s="18">
-        <v>41964</v>
-      </c>
-      <c r="E29" s="18">
-        <v>41967</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1407,12 +1283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>S.No</t>
   </si>
@@ -188,11 +188,6 @@
     <t>Modify back end functionality for order listing</t>
   </si>
   <si>
-    <t>Remove dependency on template
-Retrieve CSR Agent's name to show on the JSP
-Retrieve CollectOrders Created Time Stamp in the format HH:MM AM/PM</t>
-  </si>
-  <si>
     <t>Use createdTS attribute to compare. Integrate it with Time Search on ordersListPage.jsp</t>
   </si>
   <si>
@@ -203,13 +198,41 @@
   </si>
   <si>
     <t>Data as per screenshots</t>
+  </si>
+  <si>
+    <t>Create a Sound Notification when new order is placed on CSR Dashboard</t>
+  </si>
+  <si>
+    <t>Create a sound notification when a new customer enters the store.</t>
+  </si>
+  <si>
+    <t>1)Remove dependency on template
+2)Retrieve CSR Agent's name to show on the JSP
+3)Retrieve CollectOrders Created Time Stamp in the format HH:MM AM/PM
+4)Retrieve the orders statistics :
+ 1. Queued Orders - Status as PENDING
+ 2. Active Orders - Status as COMPLETED
+ 3. Serviced Orders - Status as COLLECTED
+ 4. Target - for now assuming (no. of serviced orders/total collected orders placed)*100</t>
+  </si>
+  <si>
+    <t>Add functionality for:
+1. Auto Refresh the order listing(blue area only) after every 30 sec through AJAX
+2. If new orders are returned through the AJAX(30 sec time interval query) , then Add more divs for the new orders below the orders list
+3. Simultaneously play a notification sound
+4. Simultaneously Increase the count on the bell icon</t>
+  </si>
+  <si>
+    <t>1. Auto refresh through AJAX
+2. If new customers are returned through AJAX(5 sec time interval query), add more divs for the new customers below the waiting for assistance list.
+3. Simultaneously play a notification sound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,17 +368,23 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,9 +478,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,6 +513,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,14 +689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -676,7 +707,7 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -702,7 +733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -728,7 +759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -754,7 +785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -780,7 +811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -806,7 +837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" customHeight="1">
+    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -832,7 +863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -858,7 +889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -877,14 +908,14 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -903,12 +934,12 @@
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="19"/>
       <c r="H9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -934,7 +965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75">
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -960,7 +991,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -986,7 +1017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1005,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1031,7 +1062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1055,7 +1086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1081,7 +1112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1105,7 +1136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1128,7 +1159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="60.75" thickBot="1">
+    <row r="19" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1152,33 +1183,33 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30.75" thickBot="1">
+    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>41963</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>41963</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45.75" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1188,20 +1219,23 @@
       <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>41964</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>41964</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1211,31 +1245,31 @@
       <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>41964</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>41964</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30.75" thickBot="1">
+    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="15">
         <v>41967</v>
@@ -1247,10 +1281,10 @@
         <v>39</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1260,17 +1294,63 @@
       <c r="C24" s="13">
         <v>2</v>
       </c>
-      <c r="D24" s="17">
-        <v>41964</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="D24" s="16">
         <v>41967</v>
+      </c>
+      <c r="E24" s="16">
+        <v>41969</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="15">
+        <v>41967</v>
+      </c>
+      <c r="E25" s="15">
+        <v>41968</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>41967</v>
+      </c>
+      <c r="E26" s="15">
+        <v>41968</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1283,12 +1363,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>S.No</t>
   </si>
@@ -226,6 +226,12 @@
     <t>1. Auto refresh through AJAX
 2. If new customers are returned through AJAX(5 sec time interval query), add more divs for the new customers below the waiting for assistance list.
 3. Simultaneously play a notification sound</t>
+  </si>
+  <si>
+    <t>Change the logic of existing BNC webservice to incorporate uuid as beacon id and not as unique user id.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is done to add users in pending CSR queue based on beacon id and hence it will remove the hard coded dependency on uuid which was previously assumed to be unique user id. </t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -311,15 +317,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -327,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,9 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,22 +389,35 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,28 +742,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -743,19 +777,19 @@
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>41946</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>41946</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -769,19 +803,19 @@
       <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>41946</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>41946</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -795,19 +829,19 @@
       <c r="C4" s="3">
         <v>0.5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>41946</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>41946</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -821,19 +855,19 @@
       <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>41946</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>41946</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -847,19 +881,19 @@
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>41947</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>41947</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -873,24 +907,24 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>41947</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>41948</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -899,24 +933,24 @@
       <c r="C8" s="3">
         <v>1.5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>41948</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>41949</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -925,22 +959,22 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="14">
         <v>41949</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>41950</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -949,24 +983,24 @@
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="14">
         <v>41950</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>41953</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -975,24 +1009,24 @@
       <c r="C11" s="3">
         <v>0.5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="14">
         <v>41950</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>41950</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1001,69 +1035,70 @@
       <c r="C12" s="3">
         <v>1.5</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>41950</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>41953</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="21" t="s">
         <v>27</v>
       </c>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3">
         <v>1.5</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="14">
         <v>41954</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="14">
         <v>41955</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1072,22 +1107,22 @@
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="14">
         <v>41955</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="14">
         <v>41956</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1096,24 +1131,24 @@
       <c r="C16" s="3">
         <v>1.5</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="14">
         <v>41954</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="14">
         <v>41955</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1122,22 +1157,22 @@
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="14">
         <v>41955</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="14">
         <v>41956</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1146,212 +1181,241 @@
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="14">
         <v>41956</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
         <v>41957</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="12">
         <v>2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="14">
         <v>41954</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="14">
         <v>41955</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="G19" s="20"/>
+      <c r="H19" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="12">
         <v>1</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <v>41963</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>41963</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="H20" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>1</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>41964</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>41964</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="H21" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>1</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>41964</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>41964</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>0.5</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
+        <v>41964</v>
+      </c>
+      <c r="E23" s="14">
         <v>41967</v>
       </c>
-      <c r="E23" s="15">
+      <c r="F23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14">
         <v>41967</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="E24" s="14">
+        <v>41969</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="14">
+        <v>41967</v>
+      </c>
+      <c r="E25" s="14">
+        <v>41968</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="14">
+        <v>41967</v>
+      </c>
+      <c r="E26" s="14">
+        <v>41968</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="G26" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>41964</v>
+      </c>
+      <c r="E27" s="11">
         <v>41967</v>
       </c>
-      <c r="E24" s="16">
-        <v>41969</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="F27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="15">
-        <v>41967</v>
-      </c>
-      <c r="E25" s="15">
-        <v>41968</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="15">
-        <v>41967</v>
-      </c>
-      <c r="E26" s="15">
-        <v>41968</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>61</v>
-      </c>
+      <c r="G27" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>S.No</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t xml:space="preserve">This is done to add users in pending CSR queue based on beacon id and hence it will remove the hard coded dependency on uuid which was previously assumed to be unique user id. </t>
+  </si>
+  <si>
+    <t>Change comments on the order confirmation page and Order History Page</t>
+  </si>
+  <si>
+    <t>Add the comments - "Kindly collect your order from Aisle 10"</t>
   </si>
 </sst>
 </file>
@@ -410,15 +416,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +486,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,7 +521,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +795,7 @@
       <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -815,7 +821,7 @@
       <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -841,7 +847,7 @@
       <c r="G4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -867,7 +873,7 @@
       <c r="G5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -893,7 +899,7 @@
       <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -919,7 +925,7 @@
       <c r="G7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -942,10 +948,10 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -968,8 +974,8 @@
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -995,7 +1001,7 @@
       <c r="G10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1021,7 +1027,7 @@
       <c r="G11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1047,7 +1053,7 @@
       <c r="G12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1069,7 +1075,7 @@
       <c r="G13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="25"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1093,7 +1099,7 @@
       <c r="G14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1117,7 +1123,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1143,7 +1149,7 @@
       <c r="G16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1167,7 +1173,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="20"/>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1193,7 +1199,7 @@
       <c r="G18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="25"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1215,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="20"/>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1238,10 +1244,10 @@
       <c r="F20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1267,7 +1273,7 @@
       <c r="G21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1293,8 +1299,8 @@
       <c r="G22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>48</v>
+      <c r="H22" s="24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1319,7 +1325,9 @@
       <c r="G23" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="25"/>
+      <c r="H23" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1343,7 +1351,7 @@
       <c r="G24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="25"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1367,7 +1375,9 @@
       <c r="G25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="25"/>
+      <c r="H25" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
@@ -1391,7 +1401,7 @@
       <c r="G26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="24"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
@@ -1400,22 +1410,46 @@
       <c r="B27" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="12">
         <v>1</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="14">
         <v>41964</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="14">
         <v>41967</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="11">
+        <v>41968</v>
+      </c>
+      <c r="E28" s="11">
+        <v>41968</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>S.No</t>
   </si>
@@ -216,28 +216,28 @@
  4. Target - for now assuming (no. of serviced orders/total collected orders placed)*100</t>
   </si>
   <si>
+    <t>1. Auto refresh through AJAX
+2. If new customers are returned through AJAX(5 sec time interval query), add more divs for the new customers below the waiting for assistance list.
+3. Simultaneously play a notification sound</t>
+  </si>
+  <si>
+    <t>Change the logic of existing BNC webservice to incorporate uuid as beacon id and not as unique user id.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is done to add users in pending CSR queue based on beacon id and hence it will remove the hard coded dependency on uuid which was previously assumed to be unique user id. </t>
+  </si>
+  <si>
+    <t>Change comments on the order confirmation page and Order History Page</t>
+  </si>
+  <si>
+    <t>Add the comments - "Kindly collect your order from Aisle 10"</t>
+  </si>
+  <si>
     <t>Add functionality for:
 1. Auto Refresh the order listing(blue area only) after every 30 sec through AJAX
 2. If new orders are returned through the AJAX(30 sec time interval query) , then Add more divs for the new orders below the orders list
 3. Simultaneously play a notification sound
-4. Simultaneously Increase the count on the bell icon</t>
-  </si>
-  <si>
-    <t>1. Auto refresh through AJAX
-2. If new customers are returned through AJAX(5 sec time interval query), add more divs for the new customers below the waiting for assistance list.
-3. Simultaneously play a notification sound</t>
-  </si>
-  <si>
-    <t>Change the logic of existing BNC webservice to incorporate uuid as beacon id and not as unique user id.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is done to add users in pending CSR queue based on beacon id and hence it will remove the hard coded dependency on uuid which was previously assumed to be unique user id. </t>
-  </si>
-  <si>
-    <t>Change comments on the order confirmation page and Order History Page</t>
-  </si>
-  <si>
-    <t>Add the comments - "Kindly collect your order from Aisle 10"</t>
+4. Simultaneously Increase the count on the bell icon as per the number of orders</t>
   </si>
 </sst>
 </file>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,21 +1337,23 @@
         <v>49</v>
       </c>
       <c r="C24" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="14">
-        <v>41967</v>
+        <v>41968</v>
       </c>
       <c r="E24" s="14">
-        <v>41969</v>
+        <v>41968</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1361,22 +1363,22 @@
         <v>57</v>
       </c>
       <c r="C25" s="12">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="14">
         <v>41967</v>
       </c>
       <c r="E25" s="14">
-        <v>41968</v>
+        <v>41967</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1399,7 +1401,7 @@
         <v>39</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="24"/>
     </row>
@@ -1408,7 +1410,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -1423,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -1432,22 +1434,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4">
         <v>0.5</v>
       </c>
       <c r="D28" s="11">
-        <v>41968</v>
+        <v>41969</v>
       </c>
       <c r="E28" s="11">
-        <v>41968</v>
+        <v>41969</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="25"/>
     </row>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>S.No</t>
   </si>
@@ -172,9 +172,6 @@
 Create same for mobile as well.</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Create functionality for retrieving orders based on Date and Time.</t>
   </si>
   <si>
@@ -191,13 +188,7 @@
     <t>Use createdTS attribute to compare. Integrate it with Time Search on ordersListPage.jsp</t>
   </si>
   <si>
-    <t>Modify back end functionality for retrieving order and customer details through AJAX.</t>
-  </si>
-  <si>
     <t>Create fragment JSPs for order details.(desktop and mobile)(JSON format)(for now basic UI as HTML code is not available for order details yet)</t>
-  </si>
-  <si>
-    <t>Data as per screenshots</t>
   </si>
   <si>
     <t>Create a Sound Notification when new order is placed on CSR Dashboard</t>
@@ -238,6 +229,28 @@
 2. If new orders are returned through the AJAX(30 sec time interval query) , then Add more divs for the new orders below the orders list
 3. Simultaneously play a notification sound
 4. Simultaneously Increase the count on the bell icon as per the number of orders</t>
+  </si>
+  <si>
+    <t>Integrate Order Details UI with the available HTML code</t>
+  </si>
+  <si>
+    <t>Integrate Customer Details for the order with the available HTML code</t>
+  </si>
+  <si>
+    <t>Kindly consider all points :
+1. All products in tabular format along with their images, quantities, unit price and total price
+2. Dropdown for changing the order status - Use the same functionality existing with the previous UI.
+3. Ignore the check boxes</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>1. Customer details along with their image
+2. Also show the recently viewed products (create JSP or tag of the existing corresponding component.jsp, and add the supporting code of the component controller in the new controller.)
+3. Also show the wishlist products (create JSP or tag of the existing corresponding component.jsp, and add the supporting code of the component controller in the new controller.)
+4. Ignore the Assist Button for now
+5. Also ignore the Shopping Trend for now</t>
   </si>
 </sst>
 </file>
@@ -313,28 +326,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -353,11 +344,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,9 +381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,9 +395,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,30 +410,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,28 +768,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -777,25 +797,25 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>0.5</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>41946</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>41946</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -803,25 +823,25 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3">
         <v>1.5</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>41946</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>41946</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -829,25 +849,25 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3">
         <v>0.5</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>41946</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>41946</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -855,25 +875,25 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>41946</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>41946</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -881,25 +901,25 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>41947</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>41947</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -907,555 +927,576 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>41947</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>41948</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>1.5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>41948</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>41949</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>41949</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>41950</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="24" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>41950</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>41953</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>0.5</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>41950</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>41950</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3">
         <v>1.5</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>41950</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>41953</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="12" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3">
         <v>1.5</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>41954</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>41955</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>41955</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>41956</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>1.5</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>41954</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>41955</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>41955</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>41956</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="24" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>41956</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>41957</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>41954</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>41955</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="24" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>41963</v>
+      </c>
+      <c r="E20" s="12">
+        <v>41963</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="12">
+      <c r="H20" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="14">
-        <v>41963</v>
-      </c>
-      <c r="E20" s="14">
-        <v>41963</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="D21" s="12">
+        <v>41964</v>
+      </c>
+      <c r="E21" s="12">
+        <v>41964</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="G21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>41964</v>
+      </c>
+      <c r="E22" s="12">
+        <v>41964</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>41967</v>
+      </c>
+      <c r="E23" s="12">
+        <v>41967</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="12">
+      <c r="H23" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="10">
         <v>1</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D24" s="12">
+        <v>41968</v>
+      </c>
+      <c r="E24" s="12">
+        <v>41968</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>41968</v>
+      </c>
+      <c r="E25" s="12">
+        <v>41969</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
         <v>41964</v>
       </c>
-      <c r="E21" s="14">
-        <v>41964</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="E26" s="12">
+        <v>41967</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14">
-        <v>41964</v>
-      </c>
-      <c r="E22" s="14">
-        <v>41964</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="25">
+        <v>41968</v>
+      </c>
+      <c r="E27" s="26">
+        <v>41968</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="24">
+        <v>2</v>
+      </c>
+      <c r="D28" s="23">
+        <v>41968</v>
+      </c>
+      <c r="E28" s="27">
+        <v>41969</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="14">
-        <v>41964</v>
-      </c>
-      <c r="E23" s="14">
-        <v>41967</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="14">
-        <v>41968</v>
-      </c>
-      <c r="E24" s="14">
-        <v>41968</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="14">
-        <v>41967</v>
-      </c>
-      <c r="E25" s="14">
-        <v>41967</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="G28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="14">
-        <v>41967</v>
-      </c>
-      <c r="E26" s="14">
-        <v>41968</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
-        <v>26</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="14">
-        <v>41964</v>
-      </c>
-      <c r="E27" s="14">
-        <v>41967</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D28" s="11">
-        <v>41969</v>
-      </c>
-      <c r="E28" s="11">
-        <v>41969</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>S.No</t>
   </si>
@@ -154,9 +154,6 @@
     <t>If the UCOID is generated than it needs to be shown on Thankyou page.
 Once the order is marked as complete the message should be promped to the customer to collect the order from the next counter/billing desk.
  On order confirmation page, UCOID is to be displayed to the customer(along with a message to not share it with anyone.)</t>
-  </si>
-  <si>
-    <t>In Process</t>
   </si>
   <si>
     <t>Interceptor class for calling and retrieving the generated UCOID from Utility class and saving the value in Order Model.</t>
@@ -372,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,29 +419,35 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,7 +971,7 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -980,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -994,7 +997,7 @@
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="20" t="s">
         <v>41</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1202,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1226,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -1250,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -1265,7 +1268,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>41</v>
@@ -1276,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
@@ -1291,7 +1294,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>41</v>
@@ -1302,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="10">
         <v>1</v>
@@ -1317,7 +1320,7 @@
         <v>39</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>41</v>
@@ -1328,7 +1331,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="10">
         <v>1</v>
@@ -1343,7 +1346,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>41</v>
@@ -1354,7 +1357,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
@@ -1369,7 +1372,7 @@
         <v>38</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>41</v>
@@ -1380,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="10">
         <v>1</v>
@@ -1395,16 +1398,18 @@
         <v>17</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -1419,58 +1424,62 @@
         <v>17</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="10">
         <v>0.5</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="21">
         <v>41968</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="22">
         <v>41968</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="24">
         <v>2</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="26">
         <v>41968</v>
       </c>
       <c r="E28" s="27">
         <v>41969</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="29" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="30" t="s">
         <v>65</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1478,16 +1487,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="H29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>S.No</t>
   </si>
@@ -240,14 +240,110 @@
 3. Ignore the check boxes</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>1. Customer details along with their image
 2. Also show the recently viewed products (create JSP or tag of the existing corresponding component.jsp, and add the supporting code of the component controller in the new controller.)
 3. Also show the wishlist products (create JSP or tag of the existing corresponding component.jsp, and add the supporting code of the component controller in the new controller.)
 4. Ignore the Assist Button for now
 5. Also ignore the Shopping Trend for now</t>
+  </si>
+  <si>
+    <t>The chart has to be made as navigation, and their counts to be properly updated. 
+On their respective clicks, the status as per LoggedIn as Queued, InService as Active, Completed as Serviced to be shown
+Also, by default the first customer has to be shown  as selected and their details on the right panel.</t>
+  </si>
+  <si>
+    <t>Add Order history, Recommended Products, Recently Viewed Products and Wishlist on the customer details page
+Add JSPs from the components and as done previously for the customer details for orders dashboard with similar changes in controller.</t>
+  </si>
+  <si>
+    <t>Implement the Search functionality similar to the UCOID search in the orders dashboard. Search has to be based on Customer name.(AJAX Search)
+Also, the first customer should be shown as selected by default and his details on the right panel 
+Create methods for searching the CSRCustomerDetails table by customerName in Dao, Facade, Service, Controller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement the Date Time Search similar to the one implemented for orders dashboard with new methods for the same in DAO, Services, Facades, Controllers.(AJAX Search)
+Also, the first customer should be shown as selected by default and his details on the right panel </t>
+  </si>
+  <si>
+    <t>1. On Serviced Tab, display the list of CSRCustomerDetailsModel which are in COMPLETED status.
+2. Also, show at the bottom of the Customer Name, "assisted by &lt;AGENT NAme&gt;"
+3. Show no button on the right panel.</t>
+  </si>
+  <si>
+    <t>1. On Active Tab, display the list of CSRCustomerDetailsModel which are InService status. 
+2. Also, show at the bottom of the Customer Name, "assisted by &lt;AGENT NAme&gt;"
+3. Show only Serviced Button on the right panel, and this button should be visible only to the CSR agent who is assisting the customer</t>
+  </si>
+  <si>
+    <t>Implement the functionality of Assist Button. On click of the button, the CSRStoreStatus of the CSRCustomerDetails should change to InService status.
+UI wise, check that the customer details are no longer shown on the Queued Page and should be shown on the Active Page.</t>
+  </si>
+  <si>
+    <t>Implement the functionality of Serviced Button. On click of the button, the CSRStoreStatus of the CSRCustomerDetails should change to Completed status.
+UI wise, check that the customer is no longer shown on the Active Page and should be shown on the Serviced Page</t>
+  </si>
+  <si>
+    <t>Implement Send Greeting functionality.
+1. A text window has to be shown on clicking the Send Greeting button.
+2. The text window should show some default Text, and must be editable by the CSR agent.
+3. On click of Send Button, an email should be sent to the customer on their email id.
+for now assume the email from id to be as csr@bncstore.com
+4. On click of cancel button the text window should close.</t>
+  </si>
+  <si>
+    <t>On click of customer names on the left panel, their corresponsing details should be opened on the right panel.
+Also show the customer name as selected on the left panel.</t>
+  </si>
+  <si>
+    <t>Customers Dashboard UI Integration as per personal_data.html with following changes(modify the customerDetailsPage.jsp):
+1. Add buttons - Send Greeting, Assist, No Thanks on the top as per send_greetings.html
+2. Show the top customer as selected by default with their details on right side
+3. Status monitoring to be done as per enumtype CSRStoreStatus, with LoggedIn as Queued, InService as Active, Completed as Serviced.
+4. The Queued page has to show the LoggedIn status customers for the day.
+5. Changes in methods in DAO, Services, Facades, Controllers as required.
+6. Create proper tags for the same instead of everything to be on one JSP.
+7. Remove dependency on template</t>
+  </si>
+  <si>
+    <t>Integrate new Customers Landing Page UI with existing code</t>
+  </si>
+  <si>
+    <t>Implement search by customer name functionality</t>
+  </si>
+  <si>
+    <t>Chart Navigation and their count to be made dynamic</t>
+  </si>
+  <si>
+    <t>Add Order history, Recommended Products, Recently Viewed Products and Wishlist on the customer details page</t>
+  </si>
+  <si>
+    <t>Implement the Date Time Search</t>
+  </si>
+  <si>
+    <t>The notification bell should show the count equal to number of queued customers.
+Page must be refreshed through AJAX every 60 seconds. 
+With every new addition of customer in queued list, a sound should be played.</t>
+  </si>
+  <si>
+    <t>The notification bell count and ajax refresh of queued customers</t>
+  </si>
+  <si>
+    <t>Implement the Active Page functionality</t>
+  </si>
+  <si>
+    <t>Implement the Serviced Page functionality</t>
+  </si>
+  <si>
+    <t>Implement the Assist Button functionality</t>
+  </si>
+  <si>
+    <t>Implement the Serviced Button functionality</t>
+  </si>
+  <si>
+    <t>Implement Send Greeting functionality.</t>
+  </si>
+  <si>
+    <t>On click of customer names on the left panel, their corresponsing details should be opened on the right panel.</t>
   </si>
 </sst>
 </file>
@@ -285,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -349,6 +445,19 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -358,18 +467,37 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,32 +550,49 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,7 +689,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +1116,7 @@
       <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="33" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -997,7 +1142,7 @@
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="20" t="s">
         <v>41</v>
       </c>
@@ -1400,8 +1545,8 @@
       <c r="G25" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>65</v>
+      <c r="H25" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1460,44 +1605,333 @@
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="34">
         <v>2</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="36">
         <v>41968</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="36">
         <v>41969</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="H28" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="14" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="26">
+        <v>2</v>
+      </c>
+      <c r="D30" s="21">
+        <v>41981</v>
+      </c>
+      <c r="E30" s="21">
+        <v>41983</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26">
+        <v>30</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="21">
+        <v>41981</v>
+      </c>
+      <c r="E31" s="21">
+        <v>41981</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
+        <v>31</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="21">
+        <v>41981</v>
+      </c>
+      <c r="E32" s="21">
+        <v>41981</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="30"/>
-    </row>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>32</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="26">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>41982</v>
+      </c>
+      <c r="E33" s="21">
+        <v>41982</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="29"/>
+    </row>
+    <row r="34" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
+        <v>33</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21">
+        <v>41983</v>
+      </c>
+      <c r="E34" s="21">
+        <v>41983</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26">
+        <v>34</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="21">
+        <v>41984</v>
+      </c>
+      <c r="E35" s="21">
+        <v>41984</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
+        <v>35</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="21">
+        <v>41984</v>
+      </c>
+      <c r="E36" s="21">
+        <v>41984</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
+        <v>36</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="21">
+        <v>41984</v>
+      </c>
+      <c r="E37" s="21">
+        <v>41984</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
+        <v>37</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="21">
+        <v>41984</v>
+      </c>
+      <c r="E38" s="21">
+        <v>41984</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <v>38</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="21">
+        <v>41985</v>
+      </c>
+      <c r="E39" s="21">
+        <v>41985</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="26">
+        <v>1</v>
+      </c>
+      <c r="D40" s="21">
+        <v>41985</v>
+      </c>
+      <c r="E40" s="21">
+        <v>41985</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="26">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21">
+        <v>41985</v>
+      </c>
+      <c r="E41" s="21">
+        <v>41988</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="H28:H29"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Defects" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <t>S.No</t>
   </si>
@@ -344,6 +344,51 @@
   </si>
   <si>
     <t>On click of customer names on the left panel, their corresponsing details should be opened on the right panel.</t>
+  </si>
+  <si>
+    <t>Defect description</t>
+  </si>
+  <si>
+    <t>Create IMPEX to map all the unique devide Ids with the already existing customers in the hybris database.</t>
+  </si>
+  <si>
+    <t>IMPEX should create the customers also.</t>
+  </si>
+  <si>
+    <t>Delivery method to show Aisle 10 instead of next counter</t>
+  </si>
+  <si>
+    <t>Queued and active pages to show all orders irrespective of date and time criteria on first load</t>
+  </si>
+  <si>
+    <t>Proper dates check for date time search functionality(e.g. From date entered should be before to date check)</t>
+  </si>
+  <si>
+    <t>Enabled To time  input field for the active and serviced pages</t>
+  </si>
+  <si>
+    <t>Cart items missing- cart entries were missing , showing order entries directly from order instead of from consignment.</t>
+  </si>
+  <si>
+    <t>Auto refresh time changed  from 30 secs to 1 minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSS issue with drop down – Shifted arrow to the left as it was overlapping the text </t>
+  </si>
+  <si>
+    <t>Remove the checkbox, as its not implemented</t>
+  </si>
+  <si>
+    <t>The side bar should not exceed the limit( red line).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The links in the side bar are not working. – Enabled Customers Dashboard and Orders dashboard links</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dim the unimplemented links. They can be left on the side bar, but let there be a distinction between implemented and unimplemented links.</t>
+  </si>
+  <si>
+    <t>Side bar should become visible only when clicked on side menu link.</t>
   </si>
 </sst>
 </file>
@@ -381,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -438,9 +483,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -449,28 +514,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -478,47 +537,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color theme="1" tint="0.249977111117893"/>
-      </left>
-      <right style="thick">
-        <color theme="1" tint="0.249977111117893"/>
-      </right>
-      <top style="thick">
-        <color theme="1" tint="0.249977111117893"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1" tint="0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,9 +563,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -547,8 +579,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -556,44 +597,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,39 +926,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="7">
         <v>0.5</v>
       </c>
       <c r="D2" s="9">
@@ -957,24 +967,24 @@
       <c r="E2" s="9">
         <v>41946</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>1.5</v>
       </c>
       <c r="D3" s="9">
@@ -983,24 +993,24 @@
       <c r="E3" s="9">
         <v>41946</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>0.5</v>
       </c>
       <c r="D4" s="9">
@@ -1009,24 +1019,24 @@
       <c r="E4" s="9">
         <v>41946</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>0.5</v>
       </c>
       <c r="D5" s="9">
@@ -1035,24 +1045,24 @@
       <c r="E5" s="9">
         <v>41946</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>0.5</v>
       </c>
       <c r="D6" s="9">
@@ -1061,24 +1071,24 @@
       <c r="E6" s="9">
         <v>41947</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="9">
@@ -1087,24 +1097,24 @@
       <c r="E7" s="9">
         <v>41948</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>1.5</v>
       </c>
       <c r="D8" s="9">
@@ -1113,833 +1123,853 @@
       <c r="E8" s="9">
         <v>41949</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>41949</v>
       </c>
       <c r="E9" s="9">
         <v>41950</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>41950</v>
       </c>
       <c r="E10" s="9">
         <v>41953</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>0.5</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>41950</v>
       </c>
       <c r="E11" s="9">
         <v>41950</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>1.5</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>41950</v>
       </c>
       <c r="E12" s="9">
         <v>41953</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>1.5</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>41954</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>41955</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>41955</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>41956</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="20" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>1.5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>41954</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>41955</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>41955</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <v>41956</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="20" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>41956</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="9">
         <v>41957</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>41954</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>41955</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="20" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>41963</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>41963</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="9">
         <v>41964</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="9">
         <v>41964</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="9">
         <v>41964</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="9">
         <v>41964</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>41967</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>41967</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>41968</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="9">
         <v>41968</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>41968</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>41969</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <v>41964</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="9">
         <v>41967</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>0.5</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="9">
         <v>41968</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="9">
         <v>41968</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="H27" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>41968</v>
+      </c>
+      <c r="E28" s="9">
+        <v>41969</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C29" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D29" s="9">
         <v>41968</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E29" s="9">
         <v>41969</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24" t="s">
+      <c r="H29" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="25" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="32"/>
-    </row>
-    <row r="30" spans="1:8" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26">
-        <v>29</v>
-      </c>
-      <c r="B30" s="28" t="s">
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D31" s="9">
         <v>41981</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E31" s="9">
         <v>41983</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G31" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
-        <v>30</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C32" s="7">
         <v>0.5</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="9">
         <v>41981</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E32" s="9">
         <v>41981</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>31</v>
-      </c>
-      <c r="B32" s="27" t="s">
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C33" s="7">
         <v>0.5</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D33" s="9">
         <v>41981</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="9">
         <v>41981</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G33" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
-        <v>32</v>
-      </c>
-      <c r="B33" s="28" t="s">
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C34" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="9">
         <v>41982</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E34" s="9">
         <v>41982</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G34" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="29"/>
-    </row>
-    <row r="34" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
-        <v>33</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C35" s="7">
         <v>1</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D35" s="9">
         <v>41983</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E35" s="9">
         <v>41983</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G35" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
-        <v>34</v>
-      </c>
-      <c r="B35" s="28" t="s">
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C36" s="7">
         <v>0.5</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="9">
         <v>41984</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E36" s="9">
         <v>41984</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="28" t="s">
+      <c r="G36" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
-        <v>35</v>
-      </c>
-      <c r="B36" s="27" t="s">
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C37" s="7">
         <v>0.5</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D37" s="9">
         <v>41984</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="9">
         <v>41984</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G37" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
-        <v>36</v>
-      </c>
-      <c r="B37" s="27" t="s">
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C38" s="7">
         <v>0.5</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="9">
         <v>41984</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E38" s="9">
         <v>41984</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G38" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H37" s="29"/>
-    </row>
-    <row r="38" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
-        <v>37</v>
-      </c>
-      <c r="B38" s="27" t="s">
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C39" s="7">
         <v>0.5</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D39" s="9">
         <v>41984</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E39" s="9">
         <v>41984</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="29"/>
-    </row>
-    <row r="39" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="9">
+        <v>41985</v>
+      </c>
+      <c r="E40" s="9">
+        <v>41985</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <v>41985</v>
+      </c>
+      <c r="E41" s="9">
+        <v>41985</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="21">
+      <c r="G41" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>41</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="19">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21">
         <v>41985</v>
       </c>
-      <c r="E39" s="21">
-        <v>41985</v>
-      </c>
-      <c r="F39" s="26" t="s">
+      <c r="E42" s="21">
+        <v>41988</v>
+      </c>
+      <c r="F42" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="29"/>
-    </row>
-    <row r="40" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
-        <v>39</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="26">
-        <v>1</v>
-      </c>
-      <c r="D40" s="21">
-        <v>41985</v>
-      </c>
-      <c r="E40" s="21">
-        <v>41985</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="29"/>
-    </row>
-    <row r="41" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
-        <v>40</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="26">
-        <v>1</v>
-      </c>
-      <c r="D41" s="21">
-        <v>41985</v>
-      </c>
-      <c r="E41" s="21">
-        <v>41988</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="28" t="s">
+      <c r="G42" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H42" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H28:H29"/>
+  <mergeCells count="1">
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1948,12 +1978,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
   <si>
     <t>S.No</t>
   </si>
@@ -426,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -497,15 +497,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -537,11 +528,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,9 +598,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -591,19 +607,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1159,7 @@
       <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -1152,7 +1185,7 @@
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
@@ -1526,7 +1559,7 @@
       <c r="F24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
         <v>61</v>
       </c>
       <c r="H24" s="16" t="s">
@@ -1552,7 +1585,7 @@
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
         <v>56</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -1578,7 +1611,7 @@
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="17" t="s">
         <v>58</v>
       </c>
       <c r="H26" s="16" t="s">
@@ -1604,7 +1637,7 @@
       <c r="F27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="17" t="s">
         <v>60</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -1630,7 +1663,7 @@
       <c r="F28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -1638,7 +1671,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1656,17 +1689,15 @@
       <c r="F29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="17" t="s">
         <v>64</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>29</v>
-      </c>
+    <row r="30" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
       <c r="B30" s="8" t="s">
         <v>63</v>
       </c>
@@ -1674,302 +1705,310 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" spans="1:8" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26">
+        <v>29</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="28">
+        <v>41981</v>
+      </c>
+      <c r="E31" s="28">
+        <v>41981</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="B32" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="26">
+        <v>1</v>
+      </c>
+      <c r="D32" s="28">
         <v>41981</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="28">
+        <v>41981</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26">
+        <v>31</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="28">
+        <v>41981</v>
+      </c>
+      <c r="E33" s="28">
+        <v>41981</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26">
+        <v>32</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="28">
+        <v>41982</v>
+      </c>
+      <c r="E34" s="28">
+        <v>41982</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="29"/>
+    </row>
+    <row r="35" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26">
+        <v>33</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="28">
+        <v>41982</v>
+      </c>
+      <c r="E35" s="28">
+        <v>41982</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26">
+        <v>34</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="28">
+        <v>41982</v>
+      </c>
+      <c r="E36" s="28">
+        <v>41982</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
+        <v>35</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1</v>
+      </c>
+      <c r="D37" s="28">
         <v>41983</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="E37" s="28">
+        <v>41983</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26">
+        <v>36</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="26">
+        <v>1</v>
+      </c>
+      <c r="D38" s="28">
+        <v>41983</v>
+      </c>
+      <c r="E38" s="28">
+        <v>41983</v>
+      </c>
+      <c r="F38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="G38" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <v>37</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="26">
         <v>0.5</v>
       </c>
-      <c r="D32" s="9">
-        <v>41981</v>
-      </c>
-      <c r="E32" s="9">
-        <v>41981</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="D39" s="28">
+        <v>41984</v>
+      </c>
+      <c r="E39" s="28">
+        <v>41984</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="7">
+      <c r="G39" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26">
+        <v>38</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="26">
         <v>0.5</v>
       </c>
-      <c r="D33" s="9">
-        <v>41981</v>
-      </c>
-      <c r="E33" s="9">
-        <v>41981</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="D40" s="28">
+        <v>41984</v>
+      </c>
+      <c r="E40" s="28">
+        <v>41984</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26">
         <v>39</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="B41" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="26">
         <v>1</v>
       </c>
-      <c r="D34" s="9">
-        <v>41982</v>
-      </c>
-      <c r="E34" s="9">
-        <v>41982</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="D41" s="28">
+        <v>41984</v>
+      </c>
+      <c r="E41" s="28">
+        <v>41985</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
+        <v>40</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="28">
+        <v>41985</v>
+      </c>
+      <c r="E42" s="28">
+        <v>41985</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9">
-        <v>41983</v>
-      </c>
-      <c r="E35" s="9">
-        <v>41983</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="9">
-        <v>41984</v>
-      </c>
-      <c r="E36" s="9">
-        <v>41984</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="9">
-        <v>41984</v>
-      </c>
-      <c r="E37" s="9">
-        <v>41984</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="9">
-        <v>41984</v>
-      </c>
-      <c r="E38" s="9">
-        <v>41984</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="9">
-        <v>41984</v>
-      </c>
-      <c r="E39" s="9">
-        <v>41984</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="9">
-        <v>41985</v>
-      </c>
-      <c r="E40" s="9">
-        <v>41985</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="18" t="s">
+      <c r="G42" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9">
-        <v>41985</v>
-      </c>
-      <c r="E41" s="9">
-        <v>41985</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19">
-        <v>41</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="19">
-        <v>1</v>
-      </c>
-      <c r="D42" s="21">
-        <v>41985</v>
-      </c>
-      <c r="E42" s="21">
-        <v>41988</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="23"/>
-    </row>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1980,7 +2019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1998,7 +2037,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2013,7 +2052,7 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2028,7 +2067,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="25"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2041,7 +2080,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="25"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -2054,7 +2093,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2067,7 +2106,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -2080,7 +2119,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2093,7 +2132,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -2106,7 +2145,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -2119,7 +2158,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2132,7 +2171,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -2145,7 +2184,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -2158,20 +2197,20 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>S.No</t>
   </si>
@@ -390,12 +390,15 @@
   <si>
     <t>Side bar should become visible only when clicked on side menu link.</t>
   </si>
+  <si>
+    <t>In Progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -614,9 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,11 +631,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +738,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -764,7 +772,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,14 +947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -958,7 +965,7 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -984,7 +991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1062,7 +1069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1088,7 +1095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="72" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1114,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1159,14 +1166,14 @@
       <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="31" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1185,12 +1192,12 @@
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="60">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1268,7 +1275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1288,7 +1295,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1412,7 +1419,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="60">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1436,7 +1443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="120">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="90">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1566,7 +1573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1592,7 +1599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1618,7 +1625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="30">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1670,7 +1677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="60">
       <c r="A29" s="32">
         <v>28</v>
       </c>
@@ -1692,11 +1699,11 @@
       <c r="G29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="105.75" thickBot="1">
       <c r="A30" s="33"/>
       <c r="B30" s="8" t="s">
         <v>63</v>
@@ -1708,307 +1715,326 @@
       <c r="G30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26">
+      <c r="H30" s="35"/>
+    </row>
+    <row r="31" spans="1:8" ht="151.5" thickTop="1" thickBot="1">
+      <c r="A31" s="25">
         <v>29</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="25">
+        <v>1</v>
+      </c>
+      <c r="D31" s="27">
+        <v>41981</v>
+      </c>
+      <c r="E31" s="27">
+        <v>41981</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="76.5" thickTop="1" thickBot="1">
+      <c r="A32" s="25">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="27">
+        <v>41981</v>
+      </c>
+      <c r="E32" s="27">
+        <v>41982</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+      <c r="A33" s="25">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="25">
         <v>0.5</v>
       </c>
-      <c r="D31" s="28">
-        <v>41981</v>
-      </c>
-      <c r="E31" s="28">
-        <v>41981</v>
-      </c>
-      <c r="F31" s="26" t="s">
+      <c r="D33" s="27">
+        <v>41982</v>
+      </c>
+      <c r="E33" s="27">
+        <v>41982</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
-        <v>30</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="26">
+      <c r="G33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+      <c r="A34" s="25">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="27">
+        <v>41982</v>
+      </c>
+      <c r="E34" s="27">
+        <v>41982</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+      <c r="A35" s="25">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="27">
+        <v>41983</v>
+      </c>
+      <c r="E35" s="27">
+        <v>41983</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+      <c r="A36" s="25">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="25">
         <v>1</v>
       </c>
-      <c r="D32" s="28">
-        <v>41981</v>
-      </c>
-      <c r="E32" s="28">
-        <v>41981</v>
-      </c>
-      <c r="F32" s="26" t="s">
+      <c r="D36" s="27">
+        <v>41982</v>
+      </c>
+      <c r="E36" s="27">
+        <v>41983</v>
+      </c>
+      <c r="F36" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
-        <v>31</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="26">
+      <c r="G36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+      <c r="A37" s="25">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="25">
         <v>0.5</v>
       </c>
-      <c r="D33" s="28">
-        <v>41981</v>
-      </c>
-      <c r="E33" s="28">
-        <v>41981</v>
-      </c>
-      <c r="F33" s="26" t="s">
+      <c r="D37" s="27">
+        <v>41983</v>
+      </c>
+      <c r="E37" s="27">
+        <v>41983</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
-        <v>32</v>
-      </c>
-      <c r="B34" s="27" t="s">
+      <c r="G37" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+      <c r="A38" s="25">
+        <v>37</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="27">
+        <v>41983</v>
+      </c>
+      <c r="E38" s="27">
+        <v>41983</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+      <c r="A39" s="25">
+        <v>36</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1</v>
+      </c>
+      <c r="D39" s="27">
+        <v>41984</v>
+      </c>
+      <c r="E39" s="27">
+        <v>41984</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+      <c r="A40" s="25">
+        <v>38</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C40" s="25">
         <v>1</v>
       </c>
-      <c r="D34" s="28">
-        <v>41982</v>
-      </c>
-      <c r="E34" s="28">
-        <v>41982</v>
-      </c>
-      <c r="F34" s="26" t="s">
+      <c r="D40" s="27">
+        <v>41984</v>
+      </c>
+      <c r="E40" s="27">
+        <v>41984</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G40" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="29"/>
-    </row>
-    <row r="35" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
-        <v>33</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="26">
+      <c r="H40" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="91.5" thickTop="1" thickBot="1">
+      <c r="A41" s="25">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1</v>
+      </c>
+      <c r="D41" s="27">
+        <v>41985</v>
+      </c>
+      <c r="E41" s="27">
+        <v>41985</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+      <c r="A42" s="25">
+        <v>40</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="25">
         <v>0.5</v>
       </c>
-      <c r="D35" s="28">
-        <v>41982</v>
-      </c>
-      <c r="E35" s="28">
-        <v>41982</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
-        <v>34</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="28">
-        <v>41982</v>
-      </c>
-      <c r="E36" s="28">
-        <v>41982</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="29"/>
-    </row>
-    <row r="37" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
-        <v>35</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="26">
-        <v>1</v>
-      </c>
-      <c r="D37" s="28">
-        <v>41983</v>
-      </c>
-      <c r="E37" s="28">
-        <v>41983</v>
-      </c>
-      <c r="F37" s="26" t="s">
+      <c r="D42" s="27">
+        <v>41985</v>
+      </c>
+      <c r="E42" s="27">
+        <v>41985</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="29"/>
-    </row>
-    <row r="38" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
-        <v>36</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="26">
-        <v>1</v>
-      </c>
-      <c r="D38" s="28">
-        <v>41983</v>
-      </c>
-      <c r="E38" s="28">
-        <v>41983</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="29"/>
-    </row>
-    <row r="39" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
-        <v>37</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="28">
-        <v>41984</v>
-      </c>
-      <c r="E39" s="28">
-        <v>41984</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="G42" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="29"/>
-    </row>
-    <row r="40" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
-        <v>38</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="28">
-        <v>41984</v>
-      </c>
-      <c r="E40" s="28">
-        <v>41984</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="29"/>
-    </row>
-    <row r="41" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
-        <v>39</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="26">
-        <v>1</v>
-      </c>
-      <c r="D41" s="28">
-        <v>41984</v>
-      </c>
-      <c r="E41" s="28">
-        <v>41985</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="42" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
-        <v>40</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="28">
-        <v>41985</v>
-      </c>
-      <c r="E42" s="28">
-        <v>41985</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="H42" s="29"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H42" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2016,14 +2042,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.5703125" style="10" customWidth="1"/>
@@ -2033,7 +2059,7 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2069,7 +2095,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2082,7 +2108,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2095,7 +2121,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2108,7 +2134,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2121,7 +2147,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2134,7 +2160,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2147,7 +2173,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2160,7 +2186,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2173,7 +2199,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2186,7 +2212,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="45">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2199,7 +2225,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30.75" thickBot="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
     <t>S.No</t>
   </si>
@@ -283,14 +283,6 @@
 UI wise, check that the customer is no longer shown on the Active Page and should be shown on the Serviced Page</t>
   </si>
   <si>
-    <t>Implement Send Greeting functionality.
-1. A text window has to be shown on clicking the Send Greeting button.
-2. The text window should show some default Text, and must be editable by the CSR agent.
-3. On click of Send Button, an email should be sent to the customer on their email id.
-for now assume the email from id to be as csr@bncstore.com
-4. On click of cancel button the text window should close.</t>
-  </si>
-  <si>
     <t>On click of customer names on the left panel, their corresponsing details should be opened on the right panel.
 Also show the customer name as selected on the left panel.</t>
   </si>
@@ -393,12 +385,24 @@
   <si>
     <t>In Progress</t>
   </si>
+  <si>
+    <t>Completed 
+Mail Server Settings Issue</t>
+  </si>
+  <si>
+    <t>Implement Send Greeting functionality.
+1. A text window has to be shown on clicking the Send Greeting button.
+2. The text window should show some default Text, and must be editable by the CSR agent.
+3. On click of Send Button, an email should be sent to the customer on their email id.
+for now assume the email from id to be as customerservicebnc@hybris.com
+4. On click of cancel button the text window should close.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +742,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -772,6 +777,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -947,14 +953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="51.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -965,7 +971,7 @@
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -991,7 +997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" customHeight="1">
+    <row r="6" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60">
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="75">
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1295,7 +1301,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1345,7 +1351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1419,7 +1425,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="60">
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="120">
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90">
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60">
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1625,7 +1631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1651,12 +1657,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
@@ -1671,13 +1677,13 @@
         <v>17</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60">
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>28</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="105.75" thickBot="1">
+    <row r="30" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="8" t="s">
         <v>63</v>
@@ -1717,12 +1723,12 @@
       </c>
       <c r="H30" s="35"/>
     </row>
-    <row r="31" spans="1:8" ht="151.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:8" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>29</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
@@ -1737,18 +1743,18 @@
         <v>38</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="76.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="25">
         <v>1.5</v>
@@ -1769,12 +1775,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+    <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="25">
         <v>0.5</v>
@@ -1795,12 +1801,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+    <row r="34" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>32</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="25">
         <v>0.5</v>
@@ -1821,12 +1827,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+    <row r="35" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>33</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="25">
         <v>0.5</v>
@@ -1847,12 +1853,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+    <row r="36" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>34</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="25">
         <v>1</v>
@@ -1873,12 +1879,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+    <row r="37" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>35</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="25">
         <v>0.5</v>
@@ -1899,12 +1905,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+    <row r="38" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <v>37</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="25">
         <v>0.5</v>
@@ -1925,12 +1931,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>36</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="25">
         <v>1</v>
@@ -1945,18 +1951,18 @@
         <v>38</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="61.5" thickTop="1" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <v>38</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="25">
         <v>1</v>
@@ -1974,15 +1980,15 @@
         <v>67</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="91.5" thickTop="1" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>39</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="25">
         <v>1</v>
@@ -1997,18 +2003,18 @@
         <v>38</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" s="26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="46.5" thickTop="1" thickBot="1">
+    <row r="42" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>40</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="25">
         <v>0.5</v>
@@ -2023,13 +2029,13 @@
         <v>39</v>
       </c>
       <c r="G42" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" thickTop="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G8:G9"/>
@@ -2042,14 +2048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="52.5703125" style="10" customWidth="1"/>
@@ -2059,12 +2065,12 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -2082,12 +2088,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -2095,12 +2101,12 @@
       <c r="F2" s="16"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -2108,12 +2114,12 @@
       <c r="F3" s="16"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -2121,12 +2127,12 @@
       <c r="F4" s="16"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -2134,12 +2140,12 @@
       <c r="F5" s="16"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2147,12 +2153,12 @@
       <c r="F6" s="16"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="45">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -2160,12 +2166,12 @@
       <c r="F7" s="16"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -2173,12 +2179,12 @@
       <c r="F8" s="16"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -2186,12 +2192,12 @@
       <c r="F9" s="16"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -2199,12 +2205,12 @@
       <c r="F10" s="16"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2212,12 +2218,12 @@
       <c r="F11" s="16"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -2225,12 +2231,12 @@
       <c r="F12" s="16"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="30.75" thickBot="1">
+    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,13 +1974,13 @@
         <v>41984</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" s="30" t="s">
         <v>67</v>
       </c>
       <c r="H40" s="28" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2026,7 +2026,7 @@
         <v>41985</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>81</v>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>S.No</t>
   </si>
@@ -383,19 +383,15 @@
     <t>Side bar should become visible only when clicked on side menu link.</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Completed 
-Mail Server Settings Issue</t>
-  </si>
-  <si>
     <t>Implement Send Greeting functionality.
 1. A text window has to be shown on clicking the Send Greeting button.
 2. The text window should show some default Text, and must be editable by the CSR agent.
 3. On click of Send Button, an email should be sent to the customer on their email id.
 for now assume the email from id to be as customerservicebnc@hybris.com
 4. On click of cancel button the text window should close.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
   </si>
 </sst>
 </file>
@@ -957,7 +953,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +1999,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>105</v>
@@ -2031,8 +2027,8 @@
       <c r="G42" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="28" t="s">
-        <v>104</v>
+      <c r="H42" s="26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
   <si>
     <t>S.No</t>
   </si>
@@ -392,6 +392,46 @@
   </si>
   <si>
     <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
+    <t>Separate impexes with respect to their functionalities</t>
+  </si>
+  <si>
+    <t>Create an addon "qrcodeaddon" for the bnc scenario
+1. Copy existing code from bnc extensions into qrcodeaddon</t>
+  </si>
+  <si>
+    <t>Add AddToWishlist code in mobile JSPs</t>
+  </si>
+  <si>
+    <t>Add property messages to the addon</t>
+  </si>
+  <si>
+    <t>Add recommendations in the addon</t>
+  </si>
+  <si>
+    <t>Create Impexes:
+1. for modifying existing product template with the addon template(desktop and mobile)
+2. for  creating and assigning the ucoid component on order confirmation page(desktop and mobile)
+3. for new content slots for components on pages(desktop and mobile)
+4. for creating and assigning new cmsparagraphcomponent on pages(desktop and mobile)
+5. For creating CSR Login link in Header links</t>
+  </si>
+  <si>
+    <t>Add collect orders interface code in my account for user
+Add component, impex</t>
+  </si>
+  <si>
+    <t>Separate the code of recently viewed products from Product Page controller. Create ajax request, controller.</t>
+  </si>
+  <si>
+    <t>Hook into init/update process for importing impexes automatically.</t>
+  </si>
+  <si>
+    <t>Test the addon with a new module</t>
+  </si>
+  <si>
+    <t>Create document for installing the addon. And add the addon code in a zipped file to GITHUB</t>
   </si>
 </sst>
 </file>
@@ -415,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +468,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -559,11 +605,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,6 +807,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2242,245 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="39"/>
+    </row>
+    <row r="44" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45">
+        <v>41</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="47">
+        <v>1</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="48">
+        <v>42</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="43">
+        <v>3</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="48">
+        <v>43</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="48">
+        <v>44</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="48">
+        <v>46</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="43">
+        <v>1</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="48">
+        <v>47</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="43">
+        <v>1</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="48">
+        <v>48</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="43">
+        <v>1</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="53">
+        <v>49</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="54">
+        <v>1</v>
+      </c>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="54">
+        <v>2</v>
+      </c>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="49">
+        <v>51</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="51">
+        <v>1</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="52"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="G8:G9"/>
@@ -2048,7 +2497,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/DevTask@QRCode.xlsx
+++ b/docs/DevTask@QRCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
   <si>
     <t>S.No</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>Create document for installing the addon. And add the addon code in a zipped file to GITHUB</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -551,17 +554,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -777,36 +769,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -823,39 +799,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -1379,7 +1370,7 @@
       <c r="F8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="49" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -1405,7 +1396,7 @@
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="49"/>
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
@@ -1891,7 +1882,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="50">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -1912,12 +1903,12 @@
       <c r="G29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="52" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="8" t="s">
         <v>63</v>
       </c>
@@ -1928,558 +1919,558 @@
       <c r="G30" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="35"/>
+      <c r="H30" s="53"/>
     </row>
     <row r="31" spans="1:8" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>29</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="25">
-        <v>1</v>
-      </c>
-      <c r="D31" s="27">
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" s="26">
         <v>41981</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="26">
         <v>41981</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>30</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>1.5</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>41981</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <v>41982</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>31</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>0.5</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <v>41982</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <v>41982</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>32</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>0.5</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="26">
         <v>41982</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <v>41982</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>33</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <v>0.5</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="26">
         <v>41983</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <v>41983</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
+      <c r="A36" s="24">
         <v>34</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="25">
-        <v>1</v>
-      </c>
-      <c r="D36" s="27">
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="26">
         <v>41982</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <v>41983</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <v>35</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="24">
         <v>0.5</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>41983</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <v>41983</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38" s="24">
         <v>0.5</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <v>41983</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <v>41983</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>36</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="25">
-        <v>1</v>
-      </c>
-      <c r="D39" s="27">
+      <c r="C39" s="24">
+        <v>1</v>
+      </c>
+      <c r="D39" s="26">
         <v>41984</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <v>41984</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>38</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="25">
-        <v>1</v>
-      </c>
-      <c r="D40" s="27">
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+      <c r="D40" s="26">
         <v>41984</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <v>41984</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="30" t="s">
+      <c r="G40" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>39</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="25">
-        <v>1</v>
-      </c>
-      <c r="D41" s="27">
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+      <c r="D41" s="26">
         <v>41985</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <v>41985</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>40</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C42" s="24">
         <v>0.5</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="26">
         <v>41985</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>41985</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="40" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="39"/>
+    <row r="43" spans="1:8" s="34" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="33"/>
     </row>
     <row r="44" spans="1:8" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45">
-        <v>41</v>
-      </c>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="39">
+        <v>41</v>
+      </c>
+      <c r="B44" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="47">
-        <v>1</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="46" t="s">
+      <c r="C44" s="41">
+        <v>1</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48">
+      <c r="A45" s="42">
         <v>42</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="37">
         <v>3</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44" t="s">
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="48">
+      <c r="A46" s="42">
         <v>43</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="37">
         <v>0.5</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44" t="s">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="48">
+      <c r="A47" s="42">
         <v>44</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="37">
         <v>0.5</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44" t="s">
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48">
+      <c r="A48" s="42">
         <v>45</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C48" s="37">
         <v>0.5</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44" t="s">
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48">
+      <c r="A49" s="42">
         <v>46</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="43">
-        <v>1</v>
-      </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44" t="s">
+      <c r="C49" s="37">
+        <v>1</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="48">
+      <c r="A50" s="42">
         <v>47</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="43">
-        <v>1</v>
-      </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44" t="s">
+      <c r="C50" s="37">
+        <v>1</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="48">
+      <c r="A51" s="42">
         <v>48</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="43">
-        <v>1</v>
-      </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="44" t="s">
+      <c r="C51" s="37">
+        <v>1</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="53">
+      <c r="A52" s="47">
         <v>49</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="54">
-        <v>1</v>
-      </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="50" t="s">
+      <c r="C52" s="48">
+        <v>1</v>
+      </c>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H52" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53">
+      <c r="A53" s="47">
         <v>50</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="48">
         <v>2</v>
       </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="50" t="s">
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49">
+      <c r="A54" s="43">
         <v>51</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="51">
-        <v>1</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="50" t="s">
+      <c r="C54" s="45">
+        <v>1</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="52"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2496,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2520,7 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2544,7 +2535,9 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -2557,7 +2550,9 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="22"/>
+      <c r="G3" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
@@ -2570,7 +2565,9 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2583,7 +2580,9 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -2596,7 +2595,9 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
@@ -2609,7 +2610,9 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="22"/>
+      <c r="G7" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -2622,7 +2625,9 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -2635,7 +2640,9 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -2648,7 +2655,9 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -2661,7 +2670,9 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
@@ -2674,7 +2685,9 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -2687,7 +2700,9 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="22" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
